--- a/supp_data/pcawg_negative_sig_path_survivals.xlsx
+++ b/supp_data/pcawg_negative_sig_path_survivals.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t xml:space="preserve">Panc_AdenoCA__HR+Cell.Cycle</t>
   </si>
@@ -1144,6 +1144,66 @@
   </si>
   <si>
     <t xml:space="preserve">-21.17599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidney_RCC__CL SBS5+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__CL SBS5+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__CL SBS1+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS5+TGF.Beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*TGF.Beta</t>
   </si>
 </sst>
 </file>
@@ -3041,6 +3101,3112 @@
         <v>257</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>3</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" t="s">
+        <v>7</v>
+      </c>
+      <c r="F276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>9</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.0693940142527101</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1.0718584534653</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.0260677631809531</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2.66206247812678</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.00776634615118169</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.401277475410375</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.669464275389107</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.802139557969648</v>
+      </c>
+      <c r="E278" t="n">
+        <v>-0.500258928042493</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.616892770083611</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>219</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-1.77587886981704</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.169334561047584</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.827048873254138</v>
+      </c>
+      <c r="E279" t="n">
+        <v>-2.14724779544116</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.0317735594783467</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>86</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.482787667700378</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1.62058576577505</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.577759728764802</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.835620143917843</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.403368632697338</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>220</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2.58882238587607</v>
+      </c>
+      <c r="C281" t="n">
+        <v>13.3140835149572</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.33327902457538</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.94169587772563</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.0521739280506638</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>221</v>
+      </c>
+      <c r="B285" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.515074360435671</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1.67376295891296</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.702097717752186</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.733622040653709</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.463179124040874</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>219</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-1.90499402947806</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.148823531173646</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.806589480534854</v>
+      </c>
+      <c r="E311" t="n">
+        <v>-2.36178883490378</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.0181869983092879</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>86</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.389786466682152</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1.47666544294349</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.541385889820733</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.719978990976696</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.471537930964946</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>220</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2.54140872118832</v>
+      </c>
+      <c r="C313" t="n">
+        <v>12.6975456792756</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1.33465387410345</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1.90417063966902</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.0568879641927529</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>221</v>
+      </c>
+      <c r="B318" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>3</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342" t="s">
+        <v>7</v>
+      </c>
+      <c r="F342" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.0636597973590408</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1.06572977299856</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.0234105549026674</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2.71927759182621</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.00654246765615903</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>219</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-1.928463958236</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.145371323499265</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.766004055619052</v>
+      </c>
+      <c r="E344" t="n">
+        <v>-2.51756363963047</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.011816961964258</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>86</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.338474693149159</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1.40280624789612</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.496055257018954</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.682332640083736</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.495028638413295</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>220</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2.54779401807783</v>
+      </c>
+      <c r="C346" t="n">
+        <v>12.7788826823062</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1.33107668068878</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1.91408508243075</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.0556092852828443</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>15</v>
+      </c>
+      <c r="B350" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>221</v>
+      </c>
+      <c r="B351" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>3</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" t="s">
+        <v>7</v>
+      </c>
+      <c r="F375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>219</v>
+      </c>
+      <c r="B376" t="n">
+        <v>-1.70251604137198</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.182224462499342</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.76009304527291</v>
+      </c>
+      <c r="E376" t="n">
+        <v>-2.23987846219629</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.0250988142448054</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>86</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.566447307285609</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1.76199608796194</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.488651714149119</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1.15920458454127</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.24637280317707</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>220</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2.65123815373342</v>
+      </c>
+      <c r="C378" t="n">
+        <v>14.1715743748918</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1.32632041308763</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1.99894243319487</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.0456145828402823</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>15</v>
+      </c>
+      <c r="B383" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>221</v>
+      </c>
+      <c r="B384" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>3</v>
+      </c>
+      <c r="B408" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" t="s">
+        <v>5</v>
+      </c>
+      <c r="D408" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" t="s">
+        <v>7</v>
+      </c>
+      <c r="F408" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>9</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.06939401425271</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1.0718584534653</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.0260677631809531</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2.66206247812678</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.0077663461511817</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" t="n">
+        <v>-0.401277475410375</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.669464275389107</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.802139557969648</v>
+      </c>
+      <c r="E410" t="n">
+        <v>-0.500258928042493</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.616892770083611</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>237</v>
+      </c>
+      <c r="B411" t="n">
+        <v>-1.77587886981704</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.169334561047584</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.827048873254138</v>
+      </c>
+      <c r="E411" t="n">
+        <v>-2.14724779544116</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.0317735594783467</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>103</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.482787667700378</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1.62058576577505</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.577759728764802</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.835620143917844</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.403368632697338</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>238</v>
+      </c>
+      <c r="B413" t="n">
+        <v>1.2957311837594</v>
+      </c>
+      <c r="C413" t="n">
+        <v>3.65366649930655</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1.28226399247959</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1.01050266665741</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.312254522476716</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>15</v>
+      </c>
+      <c r="B416" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>221</v>
+      </c>
+      <c r="B417" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>3</v>
+      </c>
+      <c r="B441" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441" t="s">
+        <v>5</v>
+      </c>
+      <c r="D441" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" t="s">
+        <v>7</v>
+      </c>
+      <c r="F441" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>10</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.515074360435671</v>
+      </c>
+      <c r="C442" t="n">
+        <v>1.67376295891296</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.702097717752186</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.733622040653709</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.463179124040874</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>237</v>
+      </c>
+      <c r="B443" t="n">
+        <v>-1.90499402947806</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.148823531173646</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.806589480534855</v>
+      </c>
+      <c r="E443" t="n">
+        <v>-2.36178883490378</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.0181869983092879</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>103</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.389786466682151</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1.47666544294349</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.541385889820733</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.719978990976695</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.471537930964946</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>238</v>
+      </c>
+      <c r="B445" t="n">
+        <v>1.02620115839241</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2.79044521505887</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1.25367346782967</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.818555377237861</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.413040134879522</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>15</v>
+      </c>
+      <c r="B449" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>221</v>
+      </c>
+      <c r="B450" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>3</v>
+      </c>
+      <c r="B474" t="s">
+        <v>4</v>
+      </c>
+      <c r="C474" t="s">
+        <v>5</v>
+      </c>
+      <c r="D474" t="s">
+        <v>6</v>
+      </c>
+      <c r="E474" t="s">
+        <v>7</v>
+      </c>
+      <c r="F474" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>9</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.0636597973590408</v>
+      </c>
+      <c r="C475" t="n">
+        <v>1.06572977299856</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.0234105549026674</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2.71927759182621</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.00654246765615901</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>237</v>
+      </c>
+      <c r="B476" t="n">
+        <v>-1.928463958236</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.145371323499265</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.766004055619052</v>
+      </c>
+      <c r="E476" t="n">
+        <v>-2.51756363963047</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.011816961964258</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>103</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.338474693149159</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1.40280624789612</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.496055257018954</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.682332640083736</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.495028638413295</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>238</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.957804752990988</v>
+      </c>
+      <c r="C478" t="n">
+        <v>2.60596944297455</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1.08156415346517</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.885573685039693</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.375847296995471</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>15</v>
+      </c>
+      <c r="B482" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>221</v>
+      </c>
+      <c r="B483" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>3</v>
+      </c>
+      <c r="B507" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507" t="s">
+        <v>5</v>
+      </c>
+      <c r="D507" t="s">
+        <v>6</v>
+      </c>
+      <c r="E507" t="s">
+        <v>7</v>
+      </c>
+      <c r="F507" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>237</v>
+      </c>
+      <c r="B508" t="n">
+        <v>-1.70251604137198</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.182224462499342</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.76009304527291</v>
+      </c>
+      <c r="E508" t="n">
+        <v>-2.23987846219629</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.0250988142448054</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>103</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.566447307285609</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1.76199608796194</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.488651714149119</v>
+      </c>
+      <c r="E509" t="n">
+        <v>1.15920458454127</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.24637280317707</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>238</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1.51516941964705</v>
+      </c>
+      <c r="C510" t="n">
+        <v>4.55019195346196</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.07390652293649</v>
+      </c>
+      <c r="E510" t="n">
+        <v>1.41089507074039</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.158275555837589</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>15</v>
+      </c>
+      <c r="B515" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>221</v>
+      </c>
+      <c r="B516" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>3</v>
+      </c>
+      <c r="B547" t="s">
+        <v>4</v>
+      </c>
+      <c r="C547" t="s">
+        <v>5</v>
+      </c>
+      <c r="D547" t="s">
+        <v>6</v>
+      </c>
+      <c r="E547" t="s">
+        <v>7</v>
+      </c>
+      <c r="F547" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>9</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.0693940142527101</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1.0718584534653</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.0260677631809531</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2.66206247812678</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.00776634615118169</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>10</v>
+      </c>
+      <c r="B549" t="n">
+        <v>-0.401277475410375</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.669464275389107</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.802139557969648</v>
+      </c>
+      <c r="E549" t="n">
+        <v>-0.500258928042493</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.616892770083611</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>219</v>
+      </c>
+      <c r="B550" t="n">
+        <v>-1.77587886981704</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.169334561047584</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.827048873254138</v>
+      </c>
+      <c r="E550" t="n">
+        <v>-2.14724779544116</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.0317735594783467</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>86</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.482787667700378</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1.62058576577505</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.577759728764802</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.835620143917843</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.403368632697338</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>220</v>
+      </c>
+      <c r="B552" t="n">
+        <v>2.58882238587607</v>
+      </c>
+      <c r="C552" t="n">
+        <v>13.3140835149572</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.33327902457538</v>
+      </c>
+      <c r="E552" t="n">
+        <v>1.94169587772563</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.0521739280506638</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>15</v>
+      </c>
+      <c r="B555" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>221</v>
+      </c>
+      <c r="B556" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>3</v>
+      </c>
+      <c r="B580" t="s">
+        <v>4</v>
+      </c>
+      <c r="C580" t="s">
+        <v>5</v>
+      </c>
+      <c r="D580" t="s">
+        <v>6</v>
+      </c>
+      <c r="E580" t="s">
+        <v>7</v>
+      </c>
+      <c r="F580" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>10</v>
+      </c>
+      <c r="B581" t="n">
+        <v>0.515074360435671</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1.67376295891296</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0.702097717752186</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.733622040653709</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.463179124040874</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>219</v>
+      </c>
+      <c r="B582" t="n">
+        <v>-1.90499402947806</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.148823531173646</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0.806589480534854</v>
+      </c>
+      <c r="E582" t="n">
+        <v>-2.36178883490378</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.0181869983092879</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>86</v>
+      </c>
+      <c r="B583" t="n">
+        <v>0.389786466682152</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1.47666544294349</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.541385889820733</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0.719978990976696</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.471537930964946</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>220</v>
+      </c>
+      <c r="B584" t="n">
+        <v>2.54140872118832</v>
+      </c>
+      <c r="C584" t="n">
+        <v>12.6975456792756</v>
+      </c>
+      <c r="D584" t="n">
+        <v>1.33465387410345</v>
+      </c>
+      <c r="E584" t="n">
+        <v>1.90417063966902</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.0568879641927529</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>15</v>
+      </c>
+      <c r="B588" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>221</v>
+      </c>
+      <c r="B589" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>3</v>
+      </c>
+      <c r="B613" t="s">
+        <v>4</v>
+      </c>
+      <c r="C613" t="s">
+        <v>5</v>
+      </c>
+      <c r="D613" t="s">
+        <v>6</v>
+      </c>
+      <c r="E613" t="s">
+        <v>7</v>
+      </c>
+      <c r="F613" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>9</v>
+      </c>
+      <c r="B614" t="n">
+        <v>0.0636597973590408</v>
+      </c>
+      <c r="C614" t="n">
+        <v>1.06572977299856</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0.0234105549026674</v>
+      </c>
+      <c r="E614" t="n">
+        <v>2.71927759182621</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0.00654246765615903</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>219</v>
+      </c>
+      <c r="B615" t="n">
+        <v>-1.928463958236</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.145371323499265</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0.766004055619052</v>
+      </c>
+      <c r="E615" t="n">
+        <v>-2.51756363963047</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.011816961964258</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>86</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0.338474693149159</v>
+      </c>
+      <c r="C616" t="n">
+        <v>1.40280624789612</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0.496055257018954</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.682332640083736</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.495028638413295</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>220</v>
+      </c>
+      <c r="B617" t="n">
+        <v>2.54779401807783</v>
+      </c>
+      <c r="C617" t="n">
+        <v>12.7788826823062</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1.33107668068878</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1.91408508243075</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0.0556092852828443</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>15</v>
+      </c>
+      <c r="B621" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>221</v>
+      </c>
+      <c r="B622" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>3</v>
+      </c>
+      <c r="B646" t="s">
+        <v>4</v>
+      </c>
+      <c r="C646" t="s">
+        <v>5</v>
+      </c>
+      <c r="D646" t="s">
+        <v>6</v>
+      </c>
+      <c r="E646" t="s">
+        <v>7</v>
+      </c>
+      <c r="F646" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>219</v>
+      </c>
+      <c r="B647" t="n">
+        <v>-1.70251604137198</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.182224462499342</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.76009304527291</v>
+      </c>
+      <c r="E647" t="n">
+        <v>-2.23987846219629</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.0250988142448054</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>86</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0.566447307285609</v>
+      </c>
+      <c r="C648" t="n">
+        <v>1.76199608796194</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.488651714149119</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1.15920458454127</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.24637280317707</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>220</v>
+      </c>
+      <c r="B649" t="n">
+        <v>2.65123815373342</v>
+      </c>
+      <c r="C649" t="n">
+        <v>14.1715743748918</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1.32632041308763</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1.99894243319487</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0.0456145828402823</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>15</v>
+      </c>
+      <c r="B654" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>221</v>
+      </c>
+      <c r="B655" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>3</v>
+      </c>
+      <c r="B679" t="s">
+        <v>4</v>
+      </c>
+      <c r="C679" t="s">
+        <v>5</v>
+      </c>
+      <c r="D679" t="s">
+        <v>6</v>
+      </c>
+      <c r="E679" t="s">
+        <v>7</v>
+      </c>
+      <c r="F679" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>9</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0.06939401425271</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1.0718584534653</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.0260677631809531</v>
+      </c>
+      <c r="E680" t="n">
+        <v>2.66206247812678</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.0077663461511817</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>10</v>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.401277475410375</v>
+      </c>
+      <c r="C681" t="n">
+        <v>0.669464275389107</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0.802139557969648</v>
+      </c>
+      <c r="E681" t="n">
+        <v>-0.500258928042493</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.616892770083611</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>237</v>
+      </c>
+      <c r="B682" t="n">
+        <v>-1.77587886981704</v>
+      </c>
+      <c r="C682" t="n">
+        <v>0.169334561047584</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0.827048873254138</v>
+      </c>
+      <c r="E682" t="n">
+        <v>-2.14724779544116</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.0317735594783467</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>103</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0.482787667700378</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1.62058576577505</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0.577759728764802</v>
+      </c>
+      <c r="E683" t="n">
+        <v>0.835620143917844</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.403368632697338</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>238</v>
+      </c>
+      <c r="B684" t="n">
+        <v>1.2957311837594</v>
+      </c>
+      <c r="C684" t="n">
+        <v>3.65366649930655</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1.28226399247959</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1.01050266665741</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0.312254522476716</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>15</v>
+      </c>
+      <c r="B687" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>221</v>
+      </c>
+      <c r="B688" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>3</v>
+      </c>
+      <c r="B712" t="s">
+        <v>4</v>
+      </c>
+      <c r="C712" t="s">
+        <v>5</v>
+      </c>
+      <c r="D712" t="s">
+        <v>6</v>
+      </c>
+      <c r="E712" t="s">
+        <v>7</v>
+      </c>
+      <c r="F712" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>10</v>
+      </c>
+      <c r="B713" t="n">
+        <v>0.515074360435671</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1.67376295891296</v>
+      </c>
+      <c r="D713" t="n">
+        <v>0.702097717752186</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.733622040653709</v>
+      </c>
+      <c r="F713" t="n">
+        <v>0.463179124040874</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>237</v>
+      </c>
+      <c r="B714" t="n">
+        <v>-1.90499402947806</v>
+      </c>
+      <c r="C714" t="n">
+        <v>0.148823531173646</v>
+      </c>
+      <c r="D714" t="n">
+        <v>0.806589480534855</v>
+      </c>
+      <c r="E714" t="n">
+        <v>-2.36178883490378</v>
+      </c>
+      <c r="F714" t="n">
+        <v>0.0181869983092879</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>103</v>
+      </c>
+      <c r="B715" t="n">
+        <v>0.389786466682151</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1.47666544294349</v>
+      </c>
+      <c r="D715" t="n">
+        <v>0.541385889820733</v>
+      </c>
+      <c r="E715" t="n">
+        <v>0.719978990976695</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.471537930964946</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>238</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1.02620115839241</v>
+      </c>
+      <c r="C716" t="n">
+        <v>2.79044521505887</v>
+      </c>
+      <c r="D716" t="n">
+        <v>1.25367346782967</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.818555377237861</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.413040134879522</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>15</v>
+      </c>
+      <c r="B720" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>221</v>
+      </c>
+      <c r="B721" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>3</v>
+      </c>
+      <c r="B745" t="s">
+        <v>4</v>
+      </c>
+      <c r="C745" t="s">
+        <v>5</v>
+      </c>
+      <c r="D745" t="s">
+        <v>6</v>
+      </c>
+      <c r="E745" t="s">
+        <v>7</v>
+      </c>
+      <c r="F745" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>9</v>
+      </c>
+      <c r="B746" t="n">
+        <v>0.0636597973590408</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1.06572977299856</v>
+      </c>
+      <c r="D746" t="n">
+        <v>0.0234105549026674</v>
+      </c>
+      <c r="E746" t="n">
+        <v>2.71927759182621</v>
+      </c>
+      <c r="F746" t="n">
+        <v>0.00654246765615901</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>237</v>
+      </c>
+      <c r="B747" t="n">
+        <v>-1.928463958236</v>
+      </c>
+      <c r="C747" t="n">
+        <v>0.145371323499265</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0.766004055619052</v>
+      </c>
+      <c r="E747" t="n">
+        <v>-2.51756363963047</v>
+      </c>
+      <c r="F747" t="n">
+        <v>0.011816961964258</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>103</v>
+      </c>
+      <c r="B748" t="n">
+        <v>0.338474693149159</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1.40280624789612</v>
+      </c>
+      <c r="D748" t="n">
+        <v>0.496055257018954</v>
+      </c>
+      <c r="E748" t="n">
+        <v>0.682332640083736</v>
+      </c>
+      <c r="F748" t="n">
+        <v>0.495028638413295</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>238</v>
+      </c>
+      <c r="B749" t="n">
+        <v>0.957804752990988</v>
+      </c>
+      <c r="C749" t="n">
+        <v>2.60596944297455</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1.08156415346517</v>
+      </c>
+      <c r="E749" t="n">
+        <v>0.885573685039693</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.375847296995471</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>15</v>
+      </c>
+      <c r="B753" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>221</v>
+      </c>
+      <c r="B754" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>3</v>
+      </c>
+      <c r="B778" t="s">
+        <v>4</v>
+      </c>
+      <c r="C778" t="s">
+        <v>5</v>
+      </c>
+      <c r="D778" t="s">
+        <v>6</v>
+      </c>
+      <c r="E778" t="s">
+        <v>7</v>
+      </c>
+      <c r="F778" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>237</v>
+      </c>
+      <c r="B779" t="n">
+        <v>-1.70251604137198</v>
+      </c>
+      <c r="C779" t="n">
+        <v>0.182224462499342</v>
+      </c>
+      <c r="D779" t="n">
+        <v>0.76009304527291</v>
+      </c>
+      <c r="E779" t="n">
+        <v>-2.23987846219629</v>
+      </c>
+      <c r="F779" t="n">
+        <v>0.0250988142448054</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>103</v>
+      </c>
+      <c r="B780" t="n">
+        <v>0.566447307285609</v>
+      </c>
+      <c r="C780" t="n">
+        <v>1.76199608796194</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0.488651714149119</v>
+      </c>
+      <c r="E780" t="n">
+        <v>1.15920458454127</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0.24637280317707</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>238</v>
+      </c>
+      <c r="B781" t="n">
+        <v>1.51516941964705</v>
+      </c>
+      <c r="C781" t="n">
+        <v>4.55019195346196</v>
+      </c>
+      <c r="D781" t="n">
+        <v>1.07390652293649</v>
+      </c>
+      <c r="E781" t="n">
+        <v>1.41089507074039</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0.158275555837589</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>15</v>
+      </c>
+      <c r="B786" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>221</v>
+      </c>
+      <c r="B787" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
